--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3030.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3030.xlsx
@@ -354,10 +354,10 @@
         <v>1.699493794412859</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>1.207031590728231</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3030.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3030.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.154322926099399</v>
+        <v>1.104095339775085</v>
       </c>
       <c r="B1">
-        <v>1.699493794412859</v>
+        <v>1.707998871803284</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>6.882572650909424</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>1.629111647605896</v>
       </c>
       <c r="E1">
-        <v>1.207031590728231</v>
+        <v>0.9437104463577271</v>
       </c>
     </row>
   </sheetData>
